--- a/gantt_data.xlsx
+++ b/gantt_data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="16">
   <si>
     <t>Task</t>
   </si>
@@ -30,9 +30,6 @@
     <t>Finish</t>
   </si>
   <si>
-    <t>Color</t>
-  </si>
-  <si>
     <t>M_1</t>
   </si>
   <si>
@@ -67,18 +64,6 @@
   </si>
   <si>
     <t>B_2</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>B</t>
   </si>
 </sst>
 </file>
@@ -436,13 +421,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -455,50 +440,41 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -506,16 +482,13 @@
       <c r="D4">
         <v>4</v>
       </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -523,33 +496,27 @@
       <c r="D5">
         <v>6</v>
       </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
         <v>11</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <v>7</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -557,16 +524,13 @@
       <c r="D7">
         <v>10</v>
       </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -574,16 +538,13 @@
       <c r="D8">
         <v>9</v>
       </c>
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9">
         <v>9</v>
@@ -591,16 +552,13 @@
       <c r="D9">
         <v>12</v>
       </c>
-      <c r="E9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10">
         <v>10</v>
@@ -608,16 +566,13 @@
       <c r="D10">
         <v>12</v>
       </c>
-      <c r="E10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -625,16 +580,13 @@
       <c r="D11">
         <v>14</v>
       </c>
-      <c r="E11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12">
         <v>12</v>
@@ -642,16 +594,13 @@
       <c r="D12">
         <v>13</v>
       </c>
-      <c r="E12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13">
         <v>14</v>
@@ -659,16 +608,13 @@
       <c r="D13">
         <v>19</v>
       </c>
-      <c r="E13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14">
         <v>19</v>
@@ -676,16 +622,13 @@
       <c r="D14">
         <v>23</v>
       </c>
-      <c r="E14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15">
         <v>23</v>
@@ -693,16 +636,13 @@
       <c r="D15">
         <v>27</v>
       </c>
-      <c r="E15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16">
         <v>27</v>
@@ -710,16 +650,13 @@
       <c r="D16">
         <v>29</v>
       </c>
-      <c r="E16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17">
         <v>29</v>
@@ -727,16 +664,13 @@
       <c r="D17">
         <v>31</v>
       </c>
-      <c r="E17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C18">
         <v>31</v>
@@ -744,25 +678,19 @@
       <c r="D18">
         <v>31</v>
       </c>
-      <c r="E18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19">
         <v>31</v>
       </c>
       <c r="D19">
         <v>33</v>
-      </c>
-      <c r="E19" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -772,13 +700,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -791,50 +719,41 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
         <v>4</v>
       </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>14</v>
@@ -842,16 +761,13 @@
       <c r="D4">
         <v>19</v>
       </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -859,16 +775,13 @@
       <c r="D5">
         <v>6</v>
       </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>6</v>
@@ -876,16 +789,13 @@
       <c r="D6">
         <v>10</v>
       </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7">
         <v>10</v>
@@ -893,16 +803,13 @@
       <c r="D7">
         <v>14</v>
       </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8">
         <v>12</v>
@@ -910,16 +817,13 @@
       <c r="D8">
         <v>13</v>
       </c>
-      <c r="E8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <v>10</v>
@@ -927,16 +831,13 @@
       <c r="D9">
         <v>12</v>
       </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10">
         <v>31</v>
@@ -944,16 +845,13 @@
       <c r="D10">
         <v>31</v>
       </c>
-      <c r="E10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11">
         <v>19</v>
@@ -961,16 +859,13 @@
       <c r="D11">
         <v>23</v>
       </c>
-      <c r="E11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12">
         <v>23</v>
@@ -978,16 +873,13 @@
       <c r="D12">
         <v>27</v>
       </c>
-      <c r="E12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13">
         <v>27</v>
@@ -995,16 +887,13 @@
       <c r="D13">
         <v>29</v>
       </c>
-      <c r="E13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14">
         <v>29</v>
@@ -1012,16 +901,13 @@
       <c r="D14">
         <v>31</v>
       </c>
-      <c r="E14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15">
         <v>31</v>
@@ -1029,16 +915,13 @@
       <c r="D15">
         <v>33</v>
       </c>
-      <c r="E15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16">
         <v>7</v>
@@ -1046,16 +929,13 @@
       <c r="D16">
         <v>9</v>
       </c>
-      <c r="E16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17">
         <v>4</v>
@@ -1063,16 +943,13 @@
       <c r="D17">
         <v>7</v>
       </c>
-      <c r="E17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1080,25 +957,19 @@
       <c r="D18">
         <v>4</v>
       </c>
-      <c r="E18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19">
         <v>9</v>
       </c>
       <c r="D19">
         <v>12</v>
-      </c>
-      <c r="E19" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1108,13 +979,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1127,16 +998,13 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1144,16 +1012,13 @@
       <c r="D2">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>6</v>
@@ -1161,16 +1026,13 @@
       <c r="D3">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4">
         <v>12</v>
@@ -1178,16 +1040,13 @@
       <c r="D4">
         <v>13</v>
       </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>14</v>
@@ -1195,16 +1054,13 @@
       <c r="D5">
         <v>19</v>
       </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6">
         <v>23</v>
@@ -1212,16 +1068,13 @@
       <c r="D6">
         <v>27</v>
       </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7">
         <v>31</v>
@@ -1229,16 +1082,13 @@
       <c r="D7">
         <v>33</v>
       </c>
-      <c r="E7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8">
         <v>29</v>
@@ -1246,16 +1096,13 @@
       <c r="D8">
         <v>31</v>
       </c>
-      <c r="E8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -1263,16 +1110,13 @@
       <c r="D9">
         <v>7</v>
       </c>
-      <c r="E9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -1280,16 +1124,13 @@
       <c r="D10">
         <v>12</v>
       </c>
-      <c r="E10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11">
         <v>7</v>
@@ -1297,16 +1138,13 @@
       <c r="D11">
         <v>9</v>
       </c>
-      <c r="E11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12">
         <v>27</v>
@@ -1314,50 +1152,41 @@
       <c r="D12">
         <v>29</v>
       </c>
-      <c r="E12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
         <v>5</v>
       </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
         <v>6</v>
       </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>4</v>
-      </c>
-      <c r="E14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>7</v>
-      </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15">
         <v>10</v>
@@ -1365,16 +1194,13 @@
       <c r="D15">
         <v>12</v>
       </c>
-      <c r="E15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16">
         <v>10</v>
@@ -1382,16 +1208,13 @@
       <c r="D16">
         <v>14</v>
       </c>
-      <c r="E16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17">
         <v>4</v>
@@ -1399,16 +1222,13 @@
       <c r="D17">
         <v>6</v>
       </c>
-      <c r="E17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C18">
         <v>19</v>
@@ -1416,25 +1236,19 @@
       <c r="D18">
         <v>23</v>
       </c>
-      <c r="E18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C19">
         <v>31</v>
       </c>
       <c r="D19">
         <v>31</v>
-      </c>
-      <c r="E19" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
